--- a/uploads/Book1.xlsx
+++ b/uploads/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthi K\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{459FC886-2E2A-44E1-9634-8691FA1FF805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501C552D-7DD5-4E31-8CE6-5C215267B098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{08B264C1-60D8-4B22-B220-82CF28BA7E09}"/>
+    <workbookView xWindow="-45120" yWindow="-2175" windowWidth="29040" windowHeight="15840" xr2:uid="{08B264C1-60D8-4B22-B220-82CF28BA7E09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="93">
   <si>
     <t>name</t>
   </si>
@@ -51,56 +51,276 @@
     <t>UG TRB</t>
   </si>
   <si>
-    <t>Kavitha Chandran</t>
-  </si>
-  <si>
-    <t>26kavit021</t>
-  </si>
-  <si>
-    <t>KSanUG#057</t>
-  </si>
-  <si>
-    <t>MAHESWARI .R</t>
-  </si>
-  <si>
-    <t>26mahe102</t>
-  </si>
-  <si>
-    <t>KSwaUG#958</t>
-  </si>
-  <si>
-    <t>Prasanth R</t>
-  </si>
-  <si>
-    <t>26pras023</t>
-  </si>
-  <si>
-    <t>KSthUG*059</t>
-  </si>
-  <si>
-    <t>Bhavani chennai</t>
-  </si>
-  <si>
-    <t>26bhav024</t>
-  </si>
-  <si>
-    <t>KSniUG#067</t>
-  </si>
-  <si>
-    <t>KUMAR</t>
-  </si>
-  <si>
-    <t>26kuma025</t>
-  </si>
-  <si>
-    <t>KSarUG&amp;061</t>
+    <t>SNEHA A M</t>
+  </si>
+  <si>
+    <t>26sneha482</t>
+  </si>
+  <si>
+    <t>KSsnUG@739</t>
+  </si>
+  <si>
+    <t>PG TRB</t>
+  </si>
+  <si>
+    <t>Muthulakshmi</t>
+  </si>
+  <si>
+    <t>26muthu615</t>
+  </si>
+  <si>
+    <t>KSmuUG#284</t>
+  </si>
+  <si>
+    <t>S Jenifer</t>
+  </si>
+  <si>
+    <t>26jenif903</t>
+  </si>
+  <si>
+    <t>KSjeUG*516</t>
+  </si>
+  <si>
+    <t>Nagarajan Naga</t>
+  </si>
+  <si>
+    <t>26nagar472</t>
+  </si>
+  <si>
+    <t>KSnaUG@638</t>
+  </si>
+  <si>
+    <t>Asha Baby S</t>
+  </si>
+  <si>
+    <t>26ashab851</t>
+  </si>
+  <si>
+    <t>KSasUG#942</t>
+  </si>
+  <si>
+    <t>Premnath A</t>
+  </si>
+  <si>
+    <t>26premn482</t>
+  </si>
+  <si>
+    <t>KSprUG@739</t>
+  </si>
+  <si>
+    <t>Rajalakshmi</t>
+  </si>
+  <si>
+    <t>26rajal615</t>
+  </si>
+  <si>
+    <t>KSraUG#284</t>
+  </si>
+  <si>
+    <t>bharathi Hi tech lab</t>
+  </si>
+  <si>
+    <t>26bharat903</t>
+  </si>
+  <si>
+    <t>KSbhUG*516</t>
+  </si>
+  <si>
+    <t>THIRUNAVUKKARASU O S</t>
+  </si>
+  <si>
+    <t>26thiru472</t>
+  </si>
+  <si>
+    <t>KSthUG@638</t>
+  </si>
+  <si>
+    <t>Tamilselvi</t>
+  </si>
+  <si>
+    <t>26tamil851</t>
+  </si>
+  <si>
+    <t>KStaUG#942</t>
+  </si>
+  <si>
+    <t>Sivapriya T</t>
+  </si>
+  <si>
+    <t>26sivap764</t>
+  </si>
+  <si>
+    <t>KSsiUG*319</t>
+  </si>
+  <si>
+    <t>Rethinavalli</t>
+  </si>
+  <si>
+    <t>26rethi493</t>
+  </si>
+  <si>
+    <t>KSreUG@875</t>
+  </si>
+  <si>
+    <t>Jerline Princy</t>
+  </si>
+  <si>
+    <t>26jerli621</t>
+  </si>
+  <si>
+    <t>KSjeUG#407</t>
+  </si>
+  <si>
+    <t>Prafiga</t>
+  </si>
+  <si>
+    <t>26prafi358</t>
+  </si>
+  <si>
+    <t>KSprUG*692</t>
+  </si>
+  <si>
+    <t>kalaiselvi N</t>
+  </si>
+  <si>
+    <t>26kalai901</t>
+  </si>
+  <si>
+    <t>KSkaUG@513</t>
+  </si>
+  <si>
+    <t>Sundari</t>
+  </si>
+  <si>
+    <t>26sunda447</t>
+  </si>
+  <si>
+    <t>KSsuUG#208</t>
+  </si>
+  <si>
+    <t>M.Kalaivani</t>
+  </si>
+  <si>
+    <t>26kalai736</t>
+  </si>
+  <si>
+    <t>KSkaUG*964</t>
+  </si>
+  <si>
+    <t>S Nithya</t>
+  </si>
+  <si>
+    <t>26nithy584</t>
+  </si>
+  <si>
+    <t>KSniUG@731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rekha(Pushpa) </t>
+  </si>
+  <si>
+    <t>26rekha392</t>
+  </si>
+  <si>
+    <t>KSreUG#845</t>
+  </si>
+  <si>
+    <t>Krishnamoorthi</t>
+  </si>
+  <si>
+    <t>26krish610</t>
+  </si>
+  <si>
+    <t>KSkrUG*273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Raji(Rajeswari)</t>
+  </si>
+  <si>
+    <t>26rajes749</t>
+  </si>
+  <si>
+    <t>KSraUG@581</t>
+  </si>
+  <si>
+    <t>P Kannagi</t>
+  </si>
+  <si>
+    <t>26kanna432</t>
+  </si>
+  <si>
+    <t>KSkaUG#694</t>
+  </si>
+  <si>
+    <t>Vijayalakshmi K</t>
+  </si>
+  <si>
+    <t>26vijay587</t>
+  </si>
+  <si>
+    <t>KSviUG*419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalai Varun(kalai selvi) </t>
+  </si>
+  <si>
+    <t>26kalai823</t>
+  </si>
+  <si>
+    <t>KSkaUG@752</t>
+  </si>
+  <si>
+    <t>Vanitha C</t>
+  </si>
+  <si>
+    <t>26vanit406</t>
+  </si>
+  <si>
+    <t>KSvaUG#318</t>
+  </si>
+  <si>
+    <t>Jayarani Jayarani</t>
+  </si>
+  <si>
+    <t>26jayar945</t>
+  </si>
+  <si>
+    <t>KSjaUG*602</t>
+  </si>
+  <si>
+    <t>Narmadha P</t>
+  </si>
+  <si>
+    <t>26narma271</t>
+  </si>
+  <si>
+    <t>KSnaUG@843</t>
+  </si>
+  <si>
+    <t>Silambarasi Yazh</t>
+  </si>
+  <si>
+    <t>26silam518</t>
+  </si>
+  <si>
+    <t>KSsiUG#790</t>
+  </si>
+  <si>
+    <t>Kaviyarasan</t>
+  </si>
+  <si>
+    <t>26kaviy634</t>
+  </si>
+  <si>
+    <t>KSkaUG*452</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,12 +337,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF0A1629"/>
-      <name val="Nunito Sans"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -131,24 +345,30 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF00ADE7"/>
       <name val="Nunito Sans"/>
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
+      <color rgb="FF7D8592"/>
       <name val="Nunito Sans"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -175,32 +395,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -210,61 +404,24 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6775926-B51D-4890-9469-2A534E6F29CD}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -599,80 +756,416 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30.6" x14ac:dyDescent="0.45">
-      <c r="A3" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30.6" x14ac:dyDescent="0.45">
-      <c r="A4" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+      <c r="C5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A26" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A27" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A28" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>4</v>
       </c>
     </row>

--- a/uploads/Book1.xlsx
+++ b/uploads/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthi K\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C884FBF6-E236-419B-8AF0-3C3DD5310BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4C1FE7-770B-4C65-A02E-0466434674A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45120" yWindow="-2175" windowWidth="29040" windowHeight="15840" xr2:uid="{08B264C1-60D8-4B22-B220-82CF28BA7E09}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{08B264C1-60D8-4B22-B220-82CF28BA7E09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>name</t>
   </si>
@@ -51,164 +51,149 @@
     <t>UG TRB</t>
   </si>
   <si>
-    <t>SNEHA A M</t>
-  </si>
-  <si>
-    <t>26sneha482</t>
-  </si>
-  <si>
     <t>PG TRB</t>
   </si>
   <si>
-    <t>Muthulakshmi</t>
-  </si>
-  <si>
-    <t>26muthu615</t>
-  </si>
-  <si>
-    <t>S Jenifer</t>
-  </si>
-  <si>
-    <t>26jenif903</t>
-  </si>
-  <si>
-    <t>Nagarajan Naga</t>
-  </si>
-  <si>
-    <t>26nagar472</t>
-  </si>
-  <si>
-    <t>Asha Baby S</t>
-  </si>
-  <si>
-    <t>26ashab851</t>
-  </si>
-  <si>
-    <t>Deepa .P</t>
-  </si>
-  <si>
-    <t>26deepa482</t>
-  </si>
-  <si>
-    <t>KSdeUG@739</t>
-  </si>
-  <si>
-    <t>Mareeswari</t>
-  </si>
-  <si>
-    <t>26maree615</t>
-  </si>
-  <si>
-    <t>KSmaUG#284</t>
-  </si>
-  <si>
-    <t>26arivu903</t>
-  </si>
-  <si>
-    <t>KSarUG*516</t>
-  </si>
-  <si>
-    <t>Bhuvaneshwari Sathasivam</t>
-  </si>
-  <si>
     <t>26bhuva472</t>
   </si>
   <si>
     <t>KSbhUG@638</t>
   </si>
   <si>
-    <t>Kannan</t>
-  </si>
-  <si>
-    <t>26kanna851</t>
-  </si>
-  <si>
-    <t>KSkaUG#942</t>
-  </si>
-  <si>
-    <t>Sathiya Narayanan A</t>
-  </si>
-  <si>
-    <t>26sathi764</t>
-  </si>
-  <si>
-    <t>KSsaUG*319</t>
-  </si>
-  <si>
-    <t>pradeepa sivaguhan</t>
-  </si>
-  <si>
-    <t>26prade493</t>
-  </si>
-  <si>
-    <t>KSprUG@875</t>
-  </si>
-  <si>
-    <t>KSsnPG@739</t>
-  </si>
-  <si>
-    <t>KSmuPG#284</t>
-  </si>
-  <si>
-    <t>KSjePG*516</t>
-  </si>
-  <si>
-    <t>KSnaPG@638</t>
-  </si>
-  <si>
-    <t>KSasPG#942</t>
-  </si>
-  <si>
-    <t>Sangeetha Ganapathi</t>
-  </si>
-  <si>
-    <t>26sange482</t>
-  </si>
-  <si>
-    <t>KSsaPG@739</t>
-  </si>
-  <si>
-    <t>Yazhini</t>
-  </si>
-  <si>
-    <t>26yazhi615</t>
-  </si>
-  <si>
-    <t>KSyaPG#284</t>
-  </si>
-  <si>
-    <t>JEMINILATHA L</t>
-  </si>
-  <si>
-    <t>26jemin903</t>
-  </si>
-  <si>
-    <t>E. Kavitha</t>
-  </si>
-  <si>
-    <t>26kavit472</t>
-  </si>
-  <si>
-    <t>KSkaPG@638</t>
-  </si>
-  <si>
-    <t>JOTHIKA L</t>
-  </si>
-  <si>
-    <t>26jothi851</t>
-  </si>
-  <si>
-    <t>KSjoPG#942</t>
-  </si>
-  <si>
-    <t>Arivu(Arivazhagan)</t>
+    <t>Veerasumithra.R</t>
+  </si>
+  <si>
+    <t>26veera482</t>
+  </si>
+  <si>
+    <t>KSvePG@739</t>
+  </si>
+  <si>
+    <t>S.NARMATHA</t>
+  </si>
+  <si>
+    <t>26narma615</t>
+  </si>
+  <si>
+    <t>KSnaPG#284</t>
+  </si>
+  <si>
+    <t>Rajendran T</t>
+  </si>
+  <si>
+    <t>26rajen482</t>
+  </si>
+  <si>
+    <t>KSraUG@739</t>
+  </si>
+  <si>
+    <t>Nikilaa</t>
+  </si>
+  <si>
+    <t>26nikil615</t>
+  </si>
+  <si>
+    <t>KSniUG#284</t>
+  </si>
+  <si>
+    <t>selva priya</t>
+  </si>
+  <si>
+    <t>26selva903</t>
+  </si>
+  <si>
+    <t>KSseUG*516</t>
+  </si>
+  <si>
+    <t>E.Bhuvana SIAPHY031</t>
+  </si>
+  <si>
+    <t>Balakarthi</t>
+  </si>
+  <si>
+    <t>26balak851</t>
+  </si>
+  <si>
+    <t>KSbaUG#942</t>
+  </si>
+  <si>
+    <t>RENITA MARY</t>
+  </si>
+  <si>
+    <t>26renit764</t>
+  </si>
+  <si>
+    <t>KSreUG*319</t>
+  </si>
+  <si>
+    <t>Elakkiya</t>
+  </si>
+  <si>
+    <t>26elakk493</t>
+  </si>
+  <si>
+    <t>KSelUG@875</t>
+  </si>
+  <si>
+    <t>Kavitha</t>
+  </si>
+  <si>
+    <t>26kavit621</t>
+  </si>
+  <si>
+    <t>KSkaUG#407</t>
+  </si>
+  <si>
+    <t>Jeffrinbeniker V</t>
+  </si>
+  <si>
+    <t>26jeffr358</t>
+  </si>
+  <si>
+    <t>KSjeUG*692</t>
+  </si>
+  <si>
+    <t>Gopi</t>
+  </si>
+  <si>
+    <t>26gopi901</t>
+  </si>
+  <si>
+    <t>KSgoUG@513</t>
+  </si>
+  <si>
+    <t>RICHARD WILSON MARTIN M</t>
+  </si>
+  <si>
+    <t>26richa447</t>
+  </si>
+  <si>
+    <t>KSriUG#208</t>
+  </si>
+  <si>
+    <t>G.TAMILVENI</t>
+  </si>
+  <si>
+    <t>26tamil736</t>
+  </si>
+  <si>
+    <t>KStaUG*964</t>
+  </si>
+  <si>
+    <t>Balu</t>
+  </si>
+  <si>
+    <t>26balu584</t>
+  </si>
+  <si>
+    <t>KSbaUG@731</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,11 +213,6 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF00ADE7"/>
-      <name val="Nunito Sans"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF7D8592"/>
       <name val="Nunito Sans"/>
     </font>
     <font>
@@ -258,7 +238,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -281,42 +261,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -632,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6775926-B51D-4890-9469-2A534E6F29CD}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -660,246 +621,218 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="D12" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A7" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="D13" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A8" s="9" t="s">
+      <c r="C14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="D14" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="9" t="s">
+      <c r="C15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="D15" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A10" s="9" t="s">
+      <c r="B16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A11" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A14" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A17" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A18" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="KSsnUG@739" xr:uid="{3D4B9193-5C81-494A-8731-458E4C32B7A1}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{C900ABD1-5EF1-4134-977A-A7DF0A8DFCDE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/uploads/Book1.xlsx
+++ b/uploads/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthi K\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4C1FE7-770B-4C65-A02E-0466434674A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164A6118-B04C-4564-BCC8-00AC8F5385DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{08B264C1-60D8-4B22-B220-82CF28BA7E09}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{08B264C1-60D8-4B22-B220-82CF28BA7E09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>name</t>
   </si>
@@ -51,149 +51,128 @@
     <t>UG TRB</t>
   </si>
   <si>
-    <t>PG TRB</t>
-  </si>
-  <si>
-    <t>26bhuva472</t>
-  </si>
-  <si>
-    <t>KSbhUG@638</t>
-  </si>
-  <si>
-    <t>Veerasumithra.R</t>
-  </si>
-  <si>
-    <t>26veera482</t>
-  </si>
-  <si>
-    <t>KSvePG@739</t>
-  </si>
-  <si>
-    <t>S.NARMATHA</t>
-  </si>
-  <si>
-    <t>26narma615</t>
-  </si>
-  <si>
-    <t>KSnaPG#284</t>
-  </si>
-  <si>
-    <t>Rajendran T</t>
-  </si>
-  <si>
-    <t>26rajen482</t>
-  </si>
-  <si>
-    <t>KSraUG@739</t>
-  </si>
-  <si>
-    <t>Nikilaa</t>
-  </si>
-  <si>
-    <t>26nikil615</t>
-  </si>
-  <si>
-    <t>KSniUG#284</t>
-  </si>
-  <si>
-    <t>selva priya</t>
-  </si>
-  <si>
-    <t>26selva903</t>
-  </si>
-  <si>
-    <t>KSseUG*516</t>
-  </si>
-  <si>
-    <t>E.Bhuvana SIAPHY031</t>
-  </si>
-  <si>
-    <t>Balakarthi</t>
-  </si>
-  <si>
-    <t>26balak851</t>
-  </si>
-  <si>
-    <t>KSbaUG#942</t>
-  </si>
-  <si>
-    <t>RENITA MARY</t>
-  </si>
-  <si>
-    <t>26renit764</t>
-  </si>
-  <si>
-    <t>KSreUG*319</t>
-  </si>
-  <si>
-    <t>Elakkiya</t>
-  </si>
-  <si>
-    <t>26elakk493</t>
-  </si>
-  <si>
-    <t>KSelUG@875</t>
-  </si>
-  <si>
-    <t>Kavitha</t>
-  </si>
-  <si>
-    <t>26kavit621</t>
-  </si>
-  <si>
-    <t>KSkaUG#407</t>
-  </si>
-  <si>
-    <t>Jeffrinbeniker V</t>
-  </si>
-  <si>
-    <t>26jeffr358</t>
-  </si>
-  <si>
-    <t>KSjeUG*692</t>
-  </si>
-  <si>
-    <t>Gopi</t>
-  </si>
-  <si>
-    <t>26gopi901</t>
-  </si>
-  <si>
-    <t>KSgoUG@513</t>
-  </si>
-  <si>
-    <t>RICHARD WILSON MARTIN M</t>
-  </si>
-  <si>
-    <t>26richa447</t>
-  </si>
-  <si>
-    <t>KSriUG#208</t>
-  </si>
-  <si>
-    <t>G.TAMILVENI</t>
-  </si>
-  <si>
-    <t>26tamil736</t>
-  </si>
-  <si>
-    <t>KStaUG*964</t>
-  </si>
-  <si>
-    <t>Balu</t>
-  </si>
-  <si>
-    <t>26balu584</t>
-  </si>
-  <si>
-    <t>KSbaUG@731</t>
+    <t>Rojenisha L</t>
+  </si>
+  <si>
+    <t>26rojen482</t>
+  </si>
+  <si>
+    <t>KSroUG@739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logu -Lokeswari S </t>
+  </si>
+  <si>
+    <t>26logul615</t>
+  </si>
+  <si>
+    <t>KSloUG#284</t>
+  </si>
+  <si>
+    <t>Ram P</t>
+  </si>
+  <si>
+    <t>26ram482</t>
+  </si>
+  <si>
+    <t>KSraUG*516</t>
+  </si>
+  <si>
+    <t>G Mariappan</t>
+  </si>
+  <si>
+    <t>26maria472</t>
+  </si>
+  <si>
+    <t>KSmaUG@638</t>
+  </si>
+  <si>
+    <t>praba karan</t>
+  </si>
+  <si>
+    <t>26praba851</t>
+  </si>
+  <si>
+    <t>KSprUG#942</t>
+  </si>
+  <si>
+    <t>Pavithra M</t>
+  </si>
+  <si>
+    <t>26pavit764</t>
+  </si>
+  <si>
+    <t>KSpaUG*319</t>
+  </si>
+  <si>
+    <t>Lakshmi Mani</t>
+  </si>
+  <si>
+    <t>26laksh493</t>
+  </si>
+  <si>
+    <t>KSlaUG@875</t>
+  </si>
+  <si>
+    <t>R.PRABHAVATHI</t>
+  </si>
+  <si>
+    <t>26prabh621</t>
+  </si>
+  <si>
+    <t>KSprUG#407</t>
+  </si>
+  <si>
+    <t>P.PRIYA</t>
+  </si>
+  <si>
+    <t>26priya358</t>
+  </si>
+  <si>
+    <t>KSprUG*692</t>
+  </si>
+  <si>
+    <t>Vaigainathi gajendran</t>
+  </si>
+  <si>
+    <t>26vaiga901</t>
+  </si>
+  <si>
+    <t>KSvaUG@513</t>
+  </si>
+  <si>
+    <t>Amudhavalli</t>
+  </si>
+  <si>
+    <t>26amudh447</t>
+  </si>
+  <si>
+    <t>KSamUG#208</t>
+  </si>
+  <si>
+    <t>Pradeepa</t>
+  </si>
+  <si>
+    <t>26prade736</t>
+  </si>
+  <si>
+    <t>KSprUG*964</t>
+  </si>
+  <si>
+    <t>S. Sumathi</t>
+  </si>
+  <si>
+    <t>26sumat584</t>
+  </si>
+  <si>
+    <t>KSsuUG@731</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,30 +194,16 @@
       <color rgb="FF00ADE7"/>
       <name val="Nunito Sans"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -261,10 +226,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -274,13 +251,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -593,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6775926-B51D-4890-9469-2A534E6F29CD}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -613,7 +587,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -621,56 +595,56 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
+      <c r="A2" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A4" s="5" t="s">
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
@@ -678,13 +652,13 @@
     </row>
     <row r="6" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>4</v>
@@ -692,13 +666,13 @@
     </row>
     <row r="7" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>4</v>
@@ -706,13 +680,13 @@
     </row>
     <row r="8" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>4</v>
@@ -720,13 +694,13 @@
     </row>
     <row r="9" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>4</v>
@@ -734,13 +708,13 @@
     </row>
     <row r="10" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>4</v>
@@ -748,13 +722,13 @@
     </row>
     <row r="11" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>4</v>
@@ -762,13 +736,13 @@
     </row>
     <row r="12" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>4</v>
@@ -776,13 +750,13 @@
     </row>
     <row r="13" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>4</v>
@@ -790,50 +764,19 @@
     </row>
     <row r="14" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="D14" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{C900ABD1-5EF1-4134-977A-A7DF0A8DFCDE}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/uploads/Book1.xlsx
+++ b/uploads/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthi K\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164A6118-B04C-4564-BCC8-00AC8F5385DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0B9AE1-4E5D-42D2-9EBF-D2EA2E100E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{08B264C1-60D8-4B22-B220-82CF28BA7E09}"/>
+    <workbookView xWindow="-45120" yWindow="-2175" windowWidth="29040" windowHeight="15840" xr2:uid="{08B264C1-60D8-4B22-B220-82CF28BA7E09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>name</t>
   </si>
@@ -51,121 +51,124 @@
     <t>UG TRB</t>
   </si>
   <si>
-    <t>Rojenisha L</t>
-  </si>
-  <si>
-    <t>26rojen482</t>
-  </si>
-  <si>
-    <t>KSroUG@739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logu -Lokeswari S </t>
-  </si>
-  <si>
-    <t>26logul615</t>
-  </si>
-  <si>
-    <t>KSloUG#284</t>
-  </si>
-  <si>
-    <t>Ram P</t>
-  </si>
-  <si>
-    <t>26ram482</t>
-  </si>
-  <si>
-    <t>KSraUG*516</t>
-  </si>
-  <si>
-    <t>G Mariappan</t>
-  </si>
-  <si>
-    <t>26maria472</t>
-  </si>
-  <si>
-    <t>KSmaUG@638</t>
-  </si>
-  <si>
-    <t>praba karan</t>
-  </si>
-  <si>
-    <t>26praba851</t>
-  </si>
-  <si>
-    <t>KSprUG#942</t>
-  </si>
-  <si>
-    <t>Pavithra M</t>
-  </si>
-  <si>
-    <t>26pavit764</t>
-  </si>
-  <si>
-    <t>KSpaUG*319</t>
-  </si>
-  <si>
-    <t>Lakshmi Mani</t>
-  </si>
-  <si>
-    <t>26laksh493</t>
-  </si>
-  <si>
-    <t>KSlaUG@875</t>
-  </si>
-  <si>
-    <t>R.PRABHAVATHI</t>
-  </si>
-  <si>
-    <t>26prabh621</t>
-  </si>
-  <si>
-    <t>KSprUG#407</t>
-  </si>
-  <si>
-    <t>P.PRIYA</t>
-  </si>
-  <si>
-    <t>26priya358</t>
-  </si>
-  <si>
-    <t>KSprUG*692</t>
-  </si>
-  <si>
-    <t>Vaigainathi gajendran</t>
-  </si>
-  <si>
-    <t>26vaiga901</t>
-  </si>
-  <si>
-    <t>KSvaUG@513</t>
-  </si>
-  <si>
-    <t>Amudhavalli</t>
-  </si>
-  <si>
-    <t>26amudh447</t>
-  </si>
-  <si>
-    <t>KSamUG#208</t>
-  </si>
-  <si>
-    <t>Pradeepa</t>
-  </si>
-  <si>
-    <t>26prade736</t>
-  </si>
-  <si>
-    <t>KSprUG*964</t>
-  </si>
-  <si>
-    <t>S. Sumathi</t>
-  </si>
-  <si>
-    <t>26sumat584</t>
-  </si>
-  <si>
-    <t>KSsuUG@731</t>
+    <t>Bharath S</t>
+  </si>
+  <si>
+    <t>26bhara482</t>
+  </si>
+  <si>
+    <t>KSbhUG@739</t>
+  </si>
+  <si>
+    <t>sathya priya - A.Raj Kumar</t>
+  </si>
+  <si>
+    <t>26sathy615</t>
+  </si>
+  <si>
+    <t>KSsaUG#284</t>
+  </si>
+  <si>
+    <t>Kalpana</t>
+  </si>
+  <si>
+    <t>26kalpa903</t>
+  </si>
+  <si>
+    <t>KSkaUG*516</t>
+  </si>
+  <si>
+    <t>Suhasini Hasini</t>
+  </si>
+  <si>
+    <t>26suhas472</t>
+  </si>
+  <si>
+    <t>KSsuUG@638</t>
+  </si>
+  <si>
+    <t>Soprano Musiczz - Godson Anto</t>
+  </si>
+  <si>
+    <t>26sopra851</t>
+  </si>
+  <si>
+    <t>KSsoUG#942</t>
+  </si>
+  <si>
+    <t>Risha Arokiaraj</t>
+  </si>
+  <si>
+    <t>26risha764</t>
+  </si>
+  <si>
+    <t>KSriUG*319</t>
+  </si>
+  <si>
+    <t>Dharani U</t>
+  </si>
+  <si>
+    <t>26dhara493</t>
+  </si>
+  <si>
+    <t>KSdhUG@875</t>
+  </si>
+  <si>
+    <t>Rajadurai</t>
+  </si>
+  <si>
+    <t>26rajad621</t>
+  </si>
+  <si>
+    <t>KSraUG#407</t>
+  </si>
+  <si>
+    <t>dennis raj</t>
+  </si>
+  <si>
+    <t>26denni358</t>
+  </si>
+  <si>
+    <t>KSdeUG*692</t>
+  </si>
+  <si>
+    <t>VENKATESAN R</t>
+  </si>
+  <si>
+    <t>26venka901</t>
+  </si>
+  <si>
+    <t>KSveUG@513</t>
+  </si>
+  <si>
+    <t>Atchaya</t>
+  </si>
+  <si>
+    <t>26atcha447</t>
+  </si>
+  <si>
+    <t>KSatUG#208</t>
+  </si>
+  <si>
+    <t>D.Tharageswari</t>
+  </si>
+  <si>
+    <t>26thara482</t>
+  </si>
+  <si>
+    <t>KSthPG@739</t>
+  </si>
+  <si>
+    <t>PG TRB</t>
+  </si>
+  <si>
+    <t>srinivasan S.Suresh</t>
+  </si>
+  <si>
+    <t>26srini615</t>
+  </si>
+  <si>
+    <t>KSsrPG#284</t>
   </si>
 </sst>
 </file>
@@ -203,7 +206,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -226,24 +229,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -251,8 +241,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,7 +563,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -587,7 +580,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -598,153 +591,153 @@
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
+      <c r="D4" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -759,21 +752,21 @@
         <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/Book1.xlsx
+++ b/uploads/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthi K\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0B9AE1-4E5D-42D2-9EBF-D2EA2E100E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B473326A-0024-4B38-92D5-8ED199DA6976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-45120" yWindow="-2175" windowWidth="29040" windowHeight="15840" xr2:uid="{08B264C1-60D8-4B22-B220-82CF28BA7E09}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>name</t>
   </si>
@@ -51,124 +51,103 @@
     <t>UG TRB</t>
   </si>
   <si>
-    <t>Bharath S</t>
-  </si>
-  <si>
-    <t>26bhara482</t>
-  </si>
-  <si>
-    <t>KSbhUG@739</t>
-  </si>
-  <si>
-    <t>sathya priya - A.Raj Kumar</t>
-  </si>
-  <si>
-    <t>26sathy615</t>
-  </si>
-  <si>
-    <t>KSsaUG#284</t>
-  </si>
-  <si>
-    <t>Kalpana</t>
-  </si>
-  <si>
-    <t>26kalpa903</t>
-  </si>
-  <si>
-    <t>KSkaUG*516</t>
-  </si>
-  <si>
-    <t>Suhasini Hasini</t>
-  </si>
-  <si>
-    <t>26suhas472</t>
-  </si>
-  <si>
-    <t>KSsuUG@638</t>
-  </si>
-  <si>
-    <t>Soprano Musiczz - Godson Anto</t>
-  </si>
-  <si>
-    <t>26sopra851</t>
-  </si>
-  <si>
-    <t>KSsoUG#942</t>
-  </si>
-  <si>
-    <t>Risha Arokiaraj</t>
-  </si>
-  <si>
-    <t>26risha764</t>
-  </si>
-  <si>
-    <t>KSriUG*319</t>
-  </si>
-  <si>
-    <t>Dharani U</t>
-  </si>
-  <si>
-    <t>26dhara493</t>
-  </si>
-  <si>
-    <t>KSdhUG@875</t>
-  </si>
-  <si>
-    <t>Rajadurai</t>
-  </si>
-  <si>
-    <t>26rajad621</t>
-  </si>
-  <si>
-    <t>KSraUG#407</t>
-  </si>
-  <si>
-    <t>dennis raj</t>
-  </si>
-  <si>
-    <t>26denni358</t>
-  </si>
-  <si>
-    <t>KSdeUG*692</t>
-  </si>
-  <si>
-    <t>VENKATESAN R</t>
-  </si>
-  <si>
-    <t>26venka901</t>
-  </si>
-  <si>
-    <t>KSveUG@513</t>
-  </si>
-  <si>
-    <t>Atchaya</t>
-  </si>
-  <si>
-    <t>26atcha447</t>
-  </si>
-  <si>
-    <t>KSatUG#208</t>
-  </si>
-  <si>
-    <t>D.Tharageswari</t>
-  </si>
-  <si>
-    <t>26thara482</t>
-  </si>
-  <si>
-    <t>KSthPG@739</t>
-  </si>
-  <si>
-    <t>PG TRB</t>
-  </si>
-  <si>
-    <t>srinivasan S.Suresh</t>
-  </si>
-  <si>
-    <t>26srini615</t>
-  </si>
-  <si>
-    <t>KSsrPG#284</t>
+    <t>vinil aalwin Ramamurthy (C.Nathiya)</t>
+  </si>
+  <si>
+    <t>26vinil482</t>
+  </si>
+  <si>
+    <t>KSviUG@739</t>
+  </si>
+  <si>
+    <t>Msaranya</t>
+  </si>
+  <si>
+    <t>26msara615</t>
+  </si>
+  <si>
+    <t>KSmsUG#284</t>
+  </si>
+  <si>
+    <t>Rajesh R</t>
+  </si>
+  <si>
+    <t>26rajes903</t>
+  </si>
+  <si>
+    <t>KSraUG*516</t>
+  </si>
+  <si>
+    <t>PRABHU K</t>
+  </si>
+  <si>
+    <t>26prabh472</t>
+  </si>
+  <si>
+    <t>KSprUG@638</t>
+  </si>
+  <si>
+    <t>ILAKKIYA</t>
+  </si>
+  <si>
+    <t>26ilakk851</t>
+  </si>
+  <si>
+    <t>KSilUG#942</t>
+  </si>
+  <si>
+    <t>Kiruthiga Rajamoorthy</t>
+  </si>
+  <si>
+    <t>26kirut764</t>
+  </si>
+  <si>
+    <t>KSkiUG*319</t>
+  </si>
+  <si>
+    <t>Jothimani E</t>
+  </si>
+  <si>
+    <t>26jothi493</t>
+  </si>
+  <si>
+    <t>KSjoUG@875</t>
+  </si>
+  <si>
+    <t>D.Manimegalai</t>
+  </si>
+  <si>
+    <t>26manim621</t>
+  </si>
+  <si>
+    <t>KSmaUG#407</t>
+  </si>
+  <si>
+    <t>k. Arulsheela (Sheela)</t>
+  </si>
+  <si>
+    <t>26aruls358</t>
+  </si>
+  <si>
+    <t>KSarUG*692</t>
+  </si>
+  <si>
+    <t>PRAVEENRAJ S</t>
+  </si>
+  <si>
+    <t>26prave901</t>
+  </si>
+  <si>
+    <t>KSprUG@513</t>
+  </si>
+  <si>
+    <t>Manimegalai Venkatesan</t>
+  </si>
+  <si>
+    <t>26manim447</t>
+  </si>
+  <si>
+    <t>KSmaUG#208</t>
   </si>
 </sst>
 </file>
@@ -233,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -241,11 +220,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,7 +538,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,186 +563,170 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/uploads/Book1.xlsx
+++ b/uploads/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthi K\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B473326A-0024-4B38-92D5-8ED199DA6976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B717232-D0D9-44BD-9CB5-652A52839692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45120" yWindow="-2175" windowWidth="29040" windowHeight="15840" xr2:uid="{08B264C1-60D8-4B22-B220-82CF28BA7E09}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{08B264C1-60D8-4B22-B220-82CF28BA7E09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
   <si>
     <t>name</t>
   </si>
@@ -51,110 +51,212 @@
     <t>UG TRB</t>
   </si>
   <si>
-    <t>vinil aalwin Ramamurthy (C.Nathiya)</t>
-  </si>
-  <si>
-    <t>26vinil482</t>
-  </si>
-  <si>
-    <t>KSviUG@739</t>
-  </si>
-  <si>
-    <t>Msaranya</t>
-  </si>
-  <si>
-    <t>26msara615</t>
-  </si>
-  <si>
-    <t>KSmsUG#284</t>
-  </si>
-  <si>
-    <t>Rajesh R</t>
-  </si>
-  <si>
-    <t>26rajes903</t>
-  </si>
-  <si>
-    <t>KSraUG*516</t>
-  </si>
-  <si>
-    <t>PRABHU K</t>
-  </si>
-  <si>
-    <t>26prabh472</t>
-  </si>
-  <si>
-    <t>KSprUG@638</t>
-  </si>
-  <si>
-    <t>ILAKKIYA</t>
-  </si>
-  <si>
-    <t>26ilakk851</t>
-  </si>
-  <si>
-    <t>KSilUG#942</t>
-  </si>
-  <si>
-    <t>Kiruthiga Rajamoorthy</t>
-  </si>
-  <si>
-    <t>26kirut764</t>
-  </si>
-  <si>
-    <t>KSkiUG*319</t>
-  </si>
-  <si>
-    <t>Jothimani E</t>
-  </si>
-  <si>
-    <t>26jothi493</t>
-  </si>
-  <si>
-    <t>KSjoUG@875</t>
-  </si>
-  <si>
-    <t>D.Manimegalai</t>
-  </si>
-  <si>
-    <t>26manim621</t>
-  </si>
-  <si>
-    <t>KSmaUG#407</t>
-  </si>
-  <si>
-    <t>k. Arulsheela (Sheela)</t>
-  </si>
-  <si>
-    <t>26aruls358</t>
-  </si>
-  <si>
-    <t>KSarUG*692</t>
-  </si>
-  <si>
-    <t>PRAVEENRAJ S</t>
-  </si>
-  <si>
-    <t>26prave901</t>
-  </si>
-  <si>
-    <t>KSprUG@513</t>
-  </si>
-  <si>
-    <t>Manimegalai Venkatesan</t>
-  </si>
-  <si>
-    <t>26manim447</t>
-  </si>
-  <si>
-    <t>KSmaUG#208</t>
+    <t>Dhara</t>
+  </si>
+  <si>
+    <t>26dhara482</t>
+  </si>
+  <si>
+    <t>KSdhUG@739</t>
+  </si>
+  <si>
+    <t>Akila Mariappan</t>
+  </si>
+  <si>
+    <t>26akila615</t>
+  </si>
+  <si>
+    <t>KSakUG#284</t>
+  </si>
+  <si>
+    <t>Anbarasi</t>
+  </si>
+  <si>
+    <t>26anbar482</t>
+  </si>
+  <si>
+    <t>KSanUG@739</t>
+  </si>
+  <si>
+    <t>ragavan nandam</t>
+  </si>
+  <si>
+    <t>26ragav615</t>
+  </si>
+  <si>
+    <t>KSraUG#284</t>
+  </si>
+  <si>
+    <t>VENKATESAN P</t>
+  </si>
+  <si>
+    <t>26venka903</t>
+  </si>
+  <si>
+    <t>KSveUG*516</t>
+  </si>
+  <si>
+    <t>Bharathi . M</t>
+  </si>
+  <si>
+    <t>26bhara472</t>
+  </si>
+  <si>
+    <t>KSbhUG@638</t>
+  </si>
+  <si>
+    <t>Ezhilarasan</t>
+  </si>
+  <si>
+    <t>26ezhil851</t>
+  </si>
+  <si>
+    <t>KSezUG#942</t>
+  </si>
+  <si>
+    <t>Ganthi Mathi</t>
+  </si>
+  <si>
+    <t>26ganth764</t>
+  </si>
+  <si>
+    <t>KSgaUG*319</t>
+  </si>
+  <si>
+    <t>Jency Ebcibha</t>
+  </si>
+  <si>
+    <t>26jency493</t>
+  </si>
+  <si>
+    <t>KSjeUG@875</t>
+  </si>
+  <si>
+    <t>S AMMU</t>
+  </si>
+  <si>
+    <t>26ammu621</t>
+  </si>
+  <si>
+    <t>KSamUG#407</t>
+  </si>
+  <si>
+    <t>BALASUNDARAM A</t>
+  </si>
+  <si>
+    <t>26balas358</t>
+  </si>
+  <si>
+    <t>KSbaUG*692</t>
+  </si>
+  <si>
+    <t>KARTHIK S</t>
+  </si>
+  <si>
+    <t>26karth901</t>
+  </si>
+  <si>
+    <t>KSkaUG@513</t>
+  </si>
+  <si>
+    <t>K.Parameswari</t>
+  </si>
+  <si>
+    <t>26param447</t>
+  </si>
+  <si>
+    <t>KSpaUG#208</t>
+  </si>
+  <si>
+    <t>J.LAKSHMI</t>
+  </si>
+  <si>
+    <t>26laksh736</t>
+  </si>
+  <si>
+    <t>KSlaUG*964</t>
+  </si>
+  <si>
+    <t>kanaga</t>
+  </si>
+  <si>
+    <t>26kanag584</t>
+  </si>
+  <si>
+    <t>KSkaUG@731</t>
+  </si>
+  <si>
+    <t>Kumar Sasi</t>
+  </si>
+  <si>
+    <t>26kumar392</t>
+  </si>
+  <si>
+    <t>KSkuUG#845</t>
+  </si>
+  <si>
+    <t>G.kanimozhi</t>
+  </si>
+  <si>
+    <t>26kanim610</t>
+  </si>
+  <si>
+    <t>KSkaUG*273</t>
+  </si>
+  <si>
+    <t>Nalliyappan</t>
+  </si>
+  <si>
+    <t>26nalli749</t>
+  </si>
+  <si>
+    <t>KSnaUG@581</t>
+  </si>
+  <si>
+    <t>Vimalraj perumal</t>
+  </si>
+  <si>
+    <t>26rajp739</t>
+  </si>
+  <si>
+    <t>KSajUG@501</t>
+  </si>
+  <si>
+    <t>Kamalaveni</t>
+  </si>
+  <si>
+    <t>26veni749</t>
+  </si>
+  <si>
+    <t>KSniUG@582</t>
+  </si>
+  <si>
+    <t>Anitha</t>
+  </si>
+  <si>
+    <t>26anit215</t>
+  </si>
+  <si>
+    <t>KSthPG#284</t>
+  </si>
+  <si>
+    <t>PG TRB</t>
+  </si>
+  <si>
+    <t>Narmadha</t>
+  </si>
+  <si>
+    <t>26madh690</t>
+  </si>
+  <si>
+    <t>KShaPG#284</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,13 +278,27 @@
       <color rgb="FF00ADE7"/>
       <name val="Nunito Sans"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -209,10 +325,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -220,9 +337,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -535,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6775926-B51D-4890-9469-2A534E6F29CD}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -563,13 +684,13 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -717,18 +838,165 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="2"/>
+      <c r="A14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{38EA6AC2-47F4-47E8-B2C4-EE14C7EFB55E}"/>
+    <hyperlink ref="C20" r:id="rId2" xr:uid="{DF6EC2FA-2C2E-4D52-8084-04923CD40435}"/>
+    <hyperlink ref="C21" r:id="rId3" xr:uid="{AB310C6D-3422-4152-91D2-91ED27FC24BA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/uploads/Book1.xlsx
+++ b/uploads/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthi K\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B717232-D0D9-44BD-9CB5-652A52839692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C355C5D0-3BE8-4432-A5EB-230DE1C32D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{08B264C1-60D8-4B22-B220-82CF28BA7E09}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{08B264C1-60D8-4B22-B220-82CF28BA7E09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>name</t>
   </si>
@@ -51,212 +51,38 @@
     <t>UG TRB</t>
   </si>
   <si>
-    <t>Dhara</t>
-  </si>
-  <si>
-    <t>26dhara482</t>
-  </si>
-  <si>
-    <t>KSdhUG@739</t>
-  </si>
-  <si>
-    <t>Akila Mariappan</t>
-  </si>
-  <si>
-    <t>26akila615</t>
-  </si>
-  <si>
-    <t>KSakUG#284</t>
-  </si>
-  <si>
-    <t>Anbarasi</t>
-  </si>
-  <si>
-    <t>26anbar482</t>
-  </si>
-  <si>
-    <t>KSanUG@739</t>
-  </si>
-  <si>
-    <t>ragavan nandam</t>
-  </si>
-  <si>
-    <t>26ragav615</t>
-  </si>
-  <si>
-    <t>KSraUG#284</t>
-  </si>
-  <si>
-    <t>VENKATESAN P</t>
-  </si>
-  <si>
-    <t>26venka903</t>
-  </si>
-  <si>
-    <t>KSveUG*516</t>
-  </si>
-  <si>
-    <t>Bharathi . M</t>
-  </si>
-  <si>
-    <t>26bhara472</t>
-  </si>
-  <si>
-    <t>KSbhUG@638</t>
-  </si>
-  <si>
-    <t>Ezhilarasan</t>
-  </si>
-  <si>
-    <t>26ezhil851</t>
-  </si>
-  <si>
-    <t>KSezUG#942</t>
-  </si>
-  <si>
-    <t>Ganthi Mathi</t>
-  </si>
-  <si>
-    <t>26ganth764</t>
-  </si>
-  <si>
-    <t>KSgaUG*319</t>
-  </si>
-  <si>
-    <t>Jency Ebcibha</t>
-  </si>
-  <si>
-    <t>26jency493</t>
-  </si>
-  <si>
-    <t>KSjeUG@875</t>
-  </si>
-  <si>
-    <t>S AMMU</t>
-  </si>
-  <si>
-    <t>26ammu621</t>
-  </si>
-  <si>
-    <t>KSamUG#407</t>
-  </si>
-  <si>
-    <t>BALASUNDARAM A</t>
-  </si>
-  <si>
-    <t>26balas358</t>
-  </si>
-  <si>
-    <t>KSbaUG*692</t>
-  </si>
-  <si>
-    <t>KARTHIK S</t>
-  </si>
-  <si>
-    <t>26karth901</t>
-  </si>
-  <si>
-    <t>KSkaUG@513</t>
-  </si>
-  <si>
-    <t>K.Parameswari</t>
-  </si>
-  <si>
-    <t>26param447</t>
-  </si>
-  <si>
-    <t>KSpaUG#208</t>
-  </si>
-  <si>
-    <t>J.LAKSHMI</t>
-  </si>
-  <si>
-    <t>26laksh736</t>
-  </si>
-  <si>
-    <t>KSlaUG*964</t>
-  </si>
-  <si>
-    <t>kanaga</t>
-  </si>
-  <si>
-    <t>26kanag584</t>
-  </si>
-  <si>
-    <t>KSkaUG@731</t>
-  </si>
-  <si>
-    <t>Kumar Sasi</t>
-  </si>
-  <si>
-    <t>26kumar392</t>
-  </si>
-  <si>
-    <t>KSkuUG#845</t>
-  </si>
-  <si>
-    <t>G.kanimozhi</t>
-  </si>
-  <si>
-    <t>26kanim610</t>
-  </si>
-  <si>
-    <t>KSkaUG*273</t>
-  </si>
-  <si>
-    <t>Nalliyappan</t>
-  </si>
-  <si>
-    <t>26nalli749</t>
-  </si>
-  <si>
-    <t>KSnaUG@581</t>
-  </si>
-  <si>
-    <t>Vimalraj perumal</t>
-  </si>
-  <si>
-    <t>26rajp739</t>
-  </si>
-  <si>
-    <t>KSajUG@501</t>
-  </si>
-  <si>
-    <t>Kamalaveni</t>
-  </si>
-  <si>
-    <t>26veni749</t>
-  </si>
-  <si>
-    <t>KSniUG@582</t>
-  </si>
-  <si>
-    <t>Anitha</t>
-  </si>
-  <si>
-    <t>26anit215</t>
-  </si>
-  <si>
-    <t>KSthPG#284</t>
-  </si>
-  <si>
-    <t>PG TRB</t>
-  </si>
-  <si>
-    <t>Narmadha</t>
-  </si>
-  <si>
-    <t>26madh690</t>
-  </si>
-  <si>
-    <t>KShaPG#284</t>
+    <t>R . Amutha</t>
+  </si>
+  <si>
+    <t>26amuth482</t>
+  </si>
+  <si>
+    <t>KSamUG@739</t>
+  </si>
+  <si>
+    <t>Divya.V</t>
+  </si>
+  <si>
+    <t>26divya615</t>
+  </si>
+  <si>
+    <t>KSdiUG#284</t>
+  </si>
+  <si>
+    <t>Kanimozhi</t>
+  </si>
+  <si>
+    <t>26kanim903</t>
+  </si>
+  <si>
+    <t>KSkaUG*516</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +111,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Nunito Sans"/>
     </font>
   </fonts>
   <fills count="3">
@@ -329,7 +161,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -341,6 +173,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -659,7 +495,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A2" sqref="A2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -683,14 +519,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -698,13 +534,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -712,13 +548,13 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -726,277 +562,120 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A21" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A22" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="A22" s="6"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A23" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{38EA6AC2-47F4-47E8-B2C4-EE14C7EFB55E}"/>
-    <hyperlink ref="C20" r:id="rId2" xr:uid="{DF6EC2FA-2C2E-4D52-8084-04923CD40435}"/>
-    <hyperlink ref="C21" r:id="rId3" xr:uid="{AB310C6D-3422-4152-91D2-91ED27FC24BA}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/uploads/Book1.xlsx
+++ b/uploads/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthi K\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C355C5D0-3BE8-4432-A5EB-230DE1C32D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9BEE59-3876-4755-A2A5-AC91933B9EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{08B264C1-60D8-4B22-B220-82CF28BA7E09}"/>
+    <workbookView xWindow="-45120" yWindow="-2175" windowWidth="29040" windowHeight="15840" xr2:uid="{08B264C1-60D8-4B22-B220-82CF28BA7E09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,38 +51,38 @@
     <t>UG TRB</t>
   </si>
   <si>
-    <t>R . Amutha</t>
-  </si>
-  <si>
-    <t>26amuth482</t>
-  </si>
-  <si>
-    <t>KSamUG@739</t>
-  </si>
-  <si>
-    <t>Divya.V</t>
-  </si>
-  <si>
-    <t>26divya615</t>
-  </si>
-  <si>
-    <t>KSdiUG#284</t>
-  </si>
-  <si>
-    <t>Kanimozhi</t>
-  </si>
-  <si>
-    <t>26kanim903</t>
-  </si>
-  <si>
-    <t>KSkaUG*516</t>
+    <t>Para Sakthi</t>
+  </si>
+  <si>
+    <t>26paras482</t>
+  </si>
+  <si>
+    <t>KSpaUG@739</t>
+  </si>
+  <si>
+    <t>Licy Nivethitha A</t>
+  </si>
+  <si>
+    <t>26licyn615</t>
+  </si>
+  <si>
+    <t>KSliUG#284</t>
+  </si>
+  <si>
+    <t>SARANRAJ R</t>
+  </si>
+  <si>
+    <t>26saran903</t>
+  </si>
+  <si>
+    <t>KSsaUG*516</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,12 +111,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Nunito Sans"/>
     </font>
   </fonts>
   <fills count="3">
@@ -161,7 +155,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -173,10 +167,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -495,7 +485,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,14 +509,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -534,13 +524,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -548,13 +538,13 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">

--- a/uploads/Book1.xlsx
+++ b/uploads/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthi K\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9BEE59-3876-4755-A2A5-AC91933B9EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E538D4-F689-4427-BB48-6096A1386F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45120" yWindow="-2175" windowWidth="29040" windowHeight="15840" xr2:uid="{08B264C1-60D8-4B22-B220-82CF28BA7E09}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{08B264C1-60D8-4B22-B220-82CF28BA7E09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>name</t>
   </si>
@@ -51,31 +51,115 @@
     <t>UG TRB</t>
   </si>
   <si>
-    <t>Para Sakthi</t>
-  </si>
-  <si>
-    <t>26paras482</t>
-  </si>
-  <si>
-    <t>KSpaUG@739</t>
-  </si>
-  <si>
-    <t>Licy Nivethitha A</t>
-  </si>
-  <si>
-    <t>26licyn615</t>
-  </si>
-  <si>
-    <t>KSliUG#284</t>
-  </si>
-  <si>
-    <t>SARANRAJ R</t>
-  </si>
-  <si>
-    <t>26saran903</t>
-  </si>
-  <si>
-    <t>KSsaUG*516</t>
+    <t>M. Bhavani</t>
+  </si>
+  <si>
+    <t>26bhava482</t>
+  </si>
+  <si>
+    <t>KSbhUG@739</t>
+  </si>
+  <si>
+    <t>Lourdu Samy</t>
+  </si>
+  <si>
+    <t>26lourd615</t>
+  </si>
+  <si>
+    <t>KSloUG#284</t>
+  </si>
+  <si>
+    <t>TENSING</t>
+  </si>
+  <si>
+    <t>26tensi903</t>
+  </si>
+  <si>
+    <t>KSteUG*516</t>
+  </si>
+  <si>
+    <t>Chandra</t>
+  </si>
+  <si>
+    <t>26chand472</t>
+  </si>
+  <si>
+    <t>KSchUG@638</t>
+  </si>
+  <si>
+    <t>Catherina</t>
+  </si>
+  <si>
+    <t>26cathe851</t>
+  </si>
+  <si>
+    <t>KScaUG#942</t>
+  </si>
+  <si>
+    <t>L R MANI</t>
+  </si>
+  <si>
+    <t>26man i764</t>
+  </si>
+  <si>
+    <t>KSmaUG*319</t>
+  </si>
+  <si>
+    <t>Akila Gunaskaran</t>
+  </si>
+  <si>
+    <t>26akila493</t>
+  </si>
+  <si>
+    <t>KSakUG@875</t>
+  </si>
+  <si>
+    <t>Maheshwari</t>
+  </si>
+  <si>
+    <t>26mahes621</t>
+  </si>
+  <si>
+    <t>KSmaUG#407</t>
+  </si>
+  <si>
+    <t>Arulmozhi Karthik</t>
+  </si>
+  <si>
+    <t>26arulm482</t>
+  </si>
+  <si>
+    <t>KSarPG@739</t>
+  </si>
+  <si>
+    <t>PG TRB</t>
+  </si>
+  <si>
+    <t>S. Tamilarasi</t>
+  </si>
+  <si>
+    <t>26tamil615</t>
+  </si>
+  <si>
+    <t>KStaPG#284</t>
+  </si>
+  <si>
+    <t>Poongodi S</t>
+  </si>
+  <si>
+    <t>26poong903</t>
+  </si>
+  <si>
+    <t>KSpoPG*516</t>
+  </si>
+  <si>
+    <t>ramya karthick</t>
+  </si>
+  <si>
+    <t>26ramya472</t>
+  </si>
+  <si>
+    <t>KSraPG@638</t>
   </si>
 </sst>
 </file>
@@ -485,7 +569,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,58 +636,130 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="2"/>
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="2"/>
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="2"/>
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="2"/>
+      <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="2"/>
+      <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="2"/>
+      <c r="A12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
@@ -666,6 +822,10 @@
       <c r="D23" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1" xr:uid="{A182746C-75CE-4ADA-BAB1-901E5EA5D08A}"/>
+    <hyperlink ref="C13" r:id="rId2" xr:uid="{0CAE0008-9786-457B-91CB-2A99D438FD05}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/uploads/Book1.xlsx
+++ b/uploads/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthi K\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E538D4-F689-4427-BB48-6096A1386F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5FC45D-7CBA-45AE-BDDE-293BB3B4FBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{08B264C1-60D8-4B22-B220-82CF28BA7E09}"/>
+    <workbookView xWindow="-45120" yWindow="-2175" windowWidth="29040" windowHeight="15840" xr2:uid="{08B264C1-60D8-4B22-B220-82CF28BA7E09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
   <si>
     <t>name</t>
   </si>
@@ -51,115 +51,151 @@
     <t>UG TRB</t>
   </si>
   <si>
-    <t>M. Bhavani</t>
-  </si>
-  <si>
-    <t>26bhava482</t>
-  </si>
-  <si>
-    <t>KSbhUG@739</t>
-  </si>
-  <si>
-    <t>Lourdu Samy</t>
-  </si>
-  <si>
-    <t>26lourd615</t>
-  </si>
-  <si>
-    <t>KSloUG#284</t>
-  </si>
-  <si>
-    <t>TENSING</t>
-  </si>
-  <si>
-    <t>26tensi903</t>
-  </si>
-  <si>
-    <t>KSteUG*516</t>
-  </si>
-  <si>
-    <t>Chandra</t>
-  </si>
-  <si>
-    <t>26chand472</t>
-  </si>
-  <si>
-    <t>KSchUG@638</t>
-  </si>
-  <si>
-    <t>Catherina</t>
-  </si>
-  <si>
-    <t>26cathe851</t>
-  </si>
-  <si>
-    <t>KScaUG#942</t>
-  </si>
-  <si>
-    <t>L R MANI</t>
-  </si>
-  <si>
-    <t>26man i764</t>
-  </si>
-  <si>
-    <t>KSmaUG*319</t>
-  </si>
-  <si>
-    <t>Akila Gunaskaran</t>
-  </si>
-  <si>
-    <t>26akila493</t>
-  </si>
-  <si>
-    <t>KSakUG@875</t>
-  </si>
-  <si>
-    <t>Maheshwari</t>
-  </si>
-  <si>
-    <t>26mahes621</t>
-  </si>
-  <si>
-    <t>KSmaUG#407</t>
-  </si>
-  <si>
-    <t>Arulmozhi Karthik</t>
-  </si>
-  <si>
-    <t>26arulm482</t>
-  </si>
-  <si>
-    <t>KSarPG@739</t>
-  </si>
-  <si>
     <t>PG TRB</t>
   </si>
   <si>
-    <t>S. Tamilarasi</t>
-  </si>
-  <si>
-    <t>26tamil615</t>
-  </si>
-  <si>
-    <t>KStaPG#284</t>
-  </si>
-  <si>
-    <t>Poongodi S</t>
-  </si>
-  <si>
-    <t>26poong903</t>
-  </si>
-  <si>
-    <t>KSpoPG*516</t>
-  </si>
-  <si>
-    <t>ramya karthick</t>
-  </si>
-  <si>
-    <t>26ramya472</t>
-  </si>
-  <si>
-    <t>KSraPG@638</t>
+    <t>Bhuvana</t>
+  </si>
+  <si>
+    <t>26bhuva482</t>
+  </si>
+  <si>
+    <t>KSbhPG@739</t>
+  </si>
+  <si>
+    <t>Saraswathi A</t>
+  </si>
+  <si>
+    <t>26saras615</t>
+  </si>
+  <si>
+    <t>KSsaPG#284</t>
+  </si>
+  <si>
+    <t>MUTHUKUMARAN N (R.Udhayalakshmi)</t>
+  </si>
+  <si>
+    <t>26muthu903</t>
+  </si>
+  <si>
+    <t>KSmuPG*516</t>
+  </si>
+  <si>
+    <t>SARANYA RAJENDRAN</t>
+  </si>
+  <si>
+    <t>26saran472</t>
+  </si>
+  <si>
+    <t>KSsaPG@638</t>
+  </si>
+  <si>
+    <t>Radhika</t>
+  </si>
+  <si>
+    <t>26radhi851</t>
+  </si>
+  <si>
+    <t>KSraPG#942</t>
+  </si>
+  <si>
+    <t>Sariga</t>
+  </si>
+  <si>
+    <t>26sarig764</t>
+  </si>
+  <si>
+    <t>KSsaPG*319</t>
+  </si>
+  <si>
+    <t>Tamilarasi.V</t>
+  </si>
+  <si>
+    <t>26tamil482</t>
+  </si>
+  <si>
+    <t>KStaUG@739</t>
+  </si>
+  <si>
+    <t>Kavignar Aathi</t>
+  </si>
+  <si>
+    <t>26kavig615</t>
+  </si>
+  <si>
+    <t>KSkaUG#284</t>
+  </si>
+  <si>
+    <t>Karpaga Moorthy</t>
+  </si>
+  <si>
+    <t>26karpa903</t>
+  </si>
+  <si>
+    <t>KSkaUG*516</t>
+  </si>
+  <si>
+    <t>Salomya.M</t>
+  </si>
+  <si>
+    <t>26salom472</t>
+  </si>
+  <si>
+    <t>KSsaUG@638</t>
+  </si>
+  <si>
+    <t>amer sherwin</t>
+  </si>
+  <si>
+    <t>26amers851</t>
+  </si>
+  <si>
+    <t>KSamUG#942</t>
+  </si>
+  <si>
+    <t>Bala Murugan</t>
+  </si>
+  <si>
+    <t>26balam764</t>
+  </si>
+  <si>
+    <t>KSbaUG*319</t>
+  </si>
+  <si>
+    <t>Prasanth Pp</t>
+  </si>
+  <si>
+    <t>26prasa493</t>
+  </si>
+  <si>
+    <t>KSprUG@875</t>
+  </si>
+  <si>
+    <t>Dhivyabharathi</t>
+  </si>
+  <si>
+    <t>26dhivy621</t>
+  </si>
+  <si>
+    <t>KSdhUG#407</t>
+  </si>
+  <si>
+    <t>Sangeetha</t>
+  </si>
+  <si>
+    <t>26sange358</t>
+  </si>
+  <si>
+    <t>KSsaUG*692</t>
+  </si>
+  <si>
+    <t>Suganthi</t>
+  </si>
+  <si>
+    <t>26sugan901</t>
+  </si>
+  <si>
+    <t>KSsuUG@513</t>
   </si>
 </sst>
 </file>
@@ -239,7 +275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -251,6 +287,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -569,7 +609,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -594,98 +634,98 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="33.6" x14ac:dyDescent="0.45">
+      <c r="A4" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="D5" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
-        <v>23</v>
+      <c r="A8" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>4</v>
@@ -693,13 +733,13 @@
     </row>
     <row r="9" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>4</v>
@@ -707,16 +747,16 @@
     </row>
     <row r="10" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="C10" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="D10" s="2" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
@@ -730,7 +770,7 @@
         <v>35</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
@@ -744,7 +784,7 @@
         <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
@@ -754,36 +794,68 @@
       <c r="B13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="2"/>
+      <c r="A14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="2"/>
+      <c r="A15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="2"/>
+      <c r="A16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="2"/>
+      <c r="A17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
@@ -823,8 +895,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1" xr:uid="{A182746C-75CE-4ADA-BAB1-901E5EA5D08A}"/>
-    <hyperlink ref="C13" r:id="rId2" xr:uid="{0CAE0008-9786-457B-91CB-2A99D438FD05}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{41099200-ECC4-4582-8E1A-21C8E056F34D}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{C4F13FBB-E3B9-4752-AE95-723213789FD7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
